--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0355ab853429be5/Escritorio/Calendario/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0355ab853429be5/Escritorio/mialunitacastello/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{81331CA6-62FE-4465-B8CA-7157272F0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0654D18-37C2-4D47-9085-38DD4A2B9EFA}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{81331CA6-62FE-4465-B8CA-7157272F0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC815E08-BF20-4A64-A878-556E9434149F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F137B06F-B9EE-4B55-8FB5-A2CC9692D3D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
   <si>
     <t>https://chatgpt.com/s/t_686021b573788191b5b1495d914dfcb4</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Animación suave de castillo + texto desplegable como pergamino</t>
-  </si>
-  <si>
-    <t>Graba tu voz y acompaña con campanillas de apertura</t>
   </si>
   <si>
     <t>Colores de tu corazón</t>
@@ -390,10 +387,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B2240D-0853-46DC-8086-1F1DE8BA8AB6}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="104" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -723,7 +716,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8">
@@ -743,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="100.8">
@@ -763,7 +756,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="72">
@@ -771,25 +764,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57.6">
@@ -797,16 +790,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -815,54 +808,54 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="72">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="72">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -871,19 +864,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="86.4">
@@ -891,19 +884,19 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="86.4">
@@ -911,19 +904,19 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="86.4">
@@ -931,19 +924,19 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="86.4">
@@ -951,19 +944,19 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="100.8">
@@ -971,19 +964,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="100.8">
@@ -991,16 +984,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -1009,19 +1002,19 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="86.4">
@@ -1029,19 +1022,19 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="72">
@@ -1049,19 +1042,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0355ab853429be5/Escritorio/mialunitacastello/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{81331CA6-62FE-4465-B8CA-7157272F0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC815E08-BF20-4A64-A878-556E9434149F}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{81331CA6-62FE-4465-B8CA-7157272F0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C66ACFE6-BD79-4BC1-BBA3-94965A4DEBBE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F137B06F-B9EE-4B55-8FB5-A2CC9692D3D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>https://chatgpt.com/s/t_686021b573788191b5b1495d914dfcb4</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>COMPLETA</t>
+  </si>
+  <si>
+    <t>COMPLETO</t>
   </si>
 </sst>
 </file>
@@ -387,6 +390,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B2240D-0853-46DC-8086-1F1DE8BA8AB6}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="104" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="104" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -801,7 +808,9 @@
       <c r="E5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="100.8">
       <c r="A6" s="2">
@@ -819,7 +828,9 @@
       <c r="E6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="72">
       <c r="A7" s="2">

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0355ab853429be5/Escritorio/mialunitacastello/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{81331CA6-62FE-4465-B8CA-7157272F0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C66ACFE6-BD79-4BC1-BBA3-94965A4DEBBE}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{81331CA6-62FE-4465-B8CA-7157272F0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37202F12-B19C-460B-BCE4-E7B75FFF0498}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F137B06F-B9EE-4B55-8FB5-A2CC9692D3D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>https://chatgpt.com/s/t_686021b573788191b5b1495d914dfcb4</t>
   </si>
@@ -360,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -373,6 +373,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -390,10 +393,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B2240D-0853-46DC-8086-1F1DE8BA8AB6}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="104" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="104" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -862,13 +861,15 @@
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="100.8">
       <c r="A9" s="2">
@@ -1071,6 +1072,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" xr:uid="{567ACCB0-A8CE-4ADC-94E3-225D3503C2F8}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{AEF8CDB4-1A9F-4F63-938B-48CC26801DDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0355ab853429be5/Escritorio/mialunitacastello/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{81331CA6-62FE-4465-B8CA-7157272F0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37202F12-B19C-460B-BCE4-E7B75FFF0498}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{81331CA6-62FE-4465-B8CA-7157272F0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01DD435F-32E6-46F2-8D6D-9F29A2C2FE43}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F137B06F-B9EE-4B55-8FB5-A2CC9692D3D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>https://chatgpt.com/s/t_686021b573788191b5b1495d914dfcb4</t>
   </si>
@@ -118,12 +118,6 @@
     <t>Spotify o YouTube Playlist embebida</t>
   </si>
   <si>
-    <t>Lista con dedicatorias por canción (tooltips)</t>
-  </si>
-  <si>
-    <t>Escoge temas que signifiquen algo entre ustedes</t>
-  </si>
-  <si>
     <t>Rompecabezas de recuerdos</t>
   </si>
   <si>
@@ -303,6 +297,9 @@
   </si>
   <si>
     <t>COMPLETO</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -714,15 +711,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B2240D-0853-46DC-8086-1F1DE8BA8AB6}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="104" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="104" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8">
@@ -742,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="100.8">
@@ -762,7 +759,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="72">
@@ -776,19 +773,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57.6">
@@ -802,13 +799,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="100.8">
@@ -825,13 +822,13 @@
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="72">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="57.6">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -845,10 +842,10 @@
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="72">
@@ -856,19 +853,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="100.8">
@@ -876,19 +873,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="86.4">
@@ -896,19 +893,19 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="86.4">
@@ -916,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="86.4">
@@ -936,19 +933,19 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="86.4">
@@ -956,19 +953,19 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="100.8">
@@ -976,19 +973,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="100.8">
@@ -996,16 +993,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -1014,19 +1011,19 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="86.4">
@@ -1034,19 +1031,19 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="72">
@@ -1054,19 +1051,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0355ab853429be5/Escritorio/mialunitacastello/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{81331CA6-62FE-4465-B8CA-7157272F0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01DD435F-32E6-46F2-8D6D-9F29A2C2FE43}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{81331CA6-62FE-4465-B8CA-7157272F0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B046D93E-6528-4045-971D-585CF1882E9A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F137B06F-B9EE-4B55-8FB5-A2CC9692D3D3}"/>
   </bookViews>
@@ -154,9 +154,6 @@
     <t>Grábate en video o crea uno con Clipchamp</t>
   </si>
   <si>
-    <t>Cuento interactivo</t>
-  </si>
-  <si>
     <t>Princesa y caballero</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>Canción</t>
   </si>
 </sst>
 </file>
@@ -390,6 +390,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -711,15 +715,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B2240D-0853-46DC-8086-1F1DE8BA8AB6}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="104" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="104" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8">
@@ -739,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="100.8">
@@ -759,7 +763,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="72">
@@ -773,19 +777,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57.6">
@@ -799,13 +803,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="100.8">
@@ -822,10 +826,10 @@
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="57.6">
@@ -842,10 +846,10 @@
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="72">
@@ -859,13 +863,13 @@
         <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="100.8">
@@ -913,19 +917,19 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="86.4">
@@ -933,19 +937,19 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="86.4">
@@ -953,19 +957,19 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="100.8">
@@ -973,19 +977,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="100.8">
@@ -993,16 +997,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -1011,19 +1015,19 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="86.4">
@@ -1031,19 +1035,19 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="72">
@@ -1051,19 +1055,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d0355ab853429be5/Escritorio/mialunitacastello/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{81331CA6-62FE-4465-B8CA-7157272F0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B046D93E-6528-4045-971D-585CF1882E9A}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{81331CA6-62FE-4465-B8CA-7157272F0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFFB5FD6-074B-4D74-A30B-301819B92129}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F137B06F-B9EE-4B55-8FB5-A2CC9692D3D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>https://chatgpt.com/s/t_686021b573788191b5b1495d914dfcb4</t>
   </si>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B2240D-0853-46DC-8086-1F1DE8BA8AB6}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="104" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="104" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1008,7 +1008,9 @@
       <c r="E15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="100.8">
       <c r="A16" s="2">
